--- a/Framework_SupportingExcel.xlsx
+++ b/Framework_SupportingExcel.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-automation-framework-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47653470-3503-4D98-8F97-AECDBBD57C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B36CD1C-241C-44E9-866D-8CC3D9A91167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="2370" windowHeight="560" activeTab="2" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
   </bookViews>
   <sheets>
     <sheet name="TDD Vs BDD" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
   <si>
     <t>Cucumber</t>
   </si>
@@ -192,6 +193,144 @@
   </si>
   <si>
     <t>Create Feature files</t>
+  </si>
+  <si>
+    <t>Create Step Definitions</t>
+  </si>
+  <si>
+    <t>Paste code into Step Definitions</t>
+  </si>
+  <si>
+    <t>Run Feature file</t>
+  </si>
+  <si>
+    <t>Create hooks if necessory</t>
+  </si>
+  <si>
+    <t>Implement properties file</t>
+  </si>
+  <si>
+    <t>Create src/test/resources/conf/config.properties</t>
+  </si>
+  <si>
+    <t>Creating properties file</t>
+  </si>
+  <si>
+    <t>create a properties reader utility</t>
+  </si>
+  <si>
+    <t>Create PropertiesUtil class under src/test/util package</t>
+  </si>
+  <si>
+    <t>This method should read property file and load all properties into system propertes</t>
+  </si>
+  <si>
+    <t>In side your code, remove all hardcoded values and use properties</t>
+  </si>
+  <si>
+    <t>By using System.getProperty("propertyname")</t>
+  </si>
+  <si>
+    <t>Page Object Model / Page Factory</t>
+  </si>
+  <si>
+    <t>Its an approach or design pattern</t>
+  </si>
+  <si>
+    <t>We create one java class per page</t>
+  </si>
+  <si>
+    <t>That page contains all the webElements present in that particular page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That page also contains the methods which act on those web elements </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When you are creating a Java class for a web page: </t>
+  </si>
+  <si>
+    <t>Step 1 : Create a class with meaningful name</t>
+  </si>
+  <si>
+    <t>Step 2: Create a constructor inside the class which takes driver as parameter and initializes the page</t>
+  </si>
+  <si>
+    <t>Step 3: Create all web elements and provide locator using @FindBY/@FindAll</t>
+  </si>
+  <si>
+    <t>Step 4: Create methods which act on the web elements</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor,understand and debug your program execution </t>
+  </si>
+  <si>
+    <t>We are using log4j library for implementing logging in our framework</t>
+  </si>
+  <si>
+    <t>Add log4j dependency in pom.xml</t>
+  </si>
+  <si>
+    <t>log4j.xml</t>
+  </si>
+  <si>
+    <t>log4j library looks from log4j.xml in your project</t>
+  </si>
+  <si>
+    <t>log4j.xml contains while log4j configuration</t>
+  </si>
+  <si>
+    <t>Create log4j.xml file in your conf directory</t>
+  </si>
+  <si>
+    <t>Add conf directory to resources in your pom.xml</t>
+  </si>
+  <si>
+    <t>Create a logger object in each class</t>
+  </si>
+  <si>
+    <t>start logging</t>
+  </si>
+  <si>
+    <t>Data Driven Approach</t>
+  </si>
+  <si>
+    <t>What is data driven test?</t>
+  </si>
+  <si>
+    <t>Same test gets executed multiples times for different sets of test data</t>
+  </si>
+  <si>
+    <t>We use Scenario Outline in Cucumber</t>
+  </si>
+  <si>
+    <t>We use DataProvider in TestNG</t>
+  </si>
+  <si>
+    <t>fname</t>
+  </si>
+  <si>
+    <t>lname</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Multiple ways of having test data</t>
+  </si>
+  <si>
+    <t>Directly in feature files Scenario Outline =&gt; Examples</t>
+  </si>
+  <si>
+    <t>For some tests, test data is sent from Excel files</t>
+  </si>
+  <si>
+    <t>user_number</t>
   </si>
 </sst>
 </file>
@@ -722,17 +861,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26C46A-F037-418B-A725-4350F6B36078}">
-  <dimension ref="A3:F23"/>
+  <dimension ref="A3:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="56.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="71.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -845,10 +984,1483 @@
         <v>51</v>
       </c>
     </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="C29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s">
+        <v>58</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F46" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F47" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F48" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F50" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>87</v>
+      </c>
+      <c r="F52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E56" t="s">
+        <v>94</v>
+      </c>
+      <c r="F56" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F57" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F15" r:id="rId1" xr:uid="{4432D7E9-249E-4A5B-AEF2-E31F804CE861}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85308FC7-BB6D-4916-A048-FC816F076245}">
+  <dimension ref="A1:AC237"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>93</v>
+      </c>
+      <c r="L1" t="s">
+        <v>93</v>
+      </c>
+      <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" t="s">
+        <v>93</v>
+      </c>
+      <c r="P1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T1" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" t="s">
+        <v>93</v>
+      </c>
+      <c r="V1" t="s">
+        <v>93</v>
+      </c>
+      <c r="W1" t="s">
+        <v>93</v>
+      </c>
+      <c r="X1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A203">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A205">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A206">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A207">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A208">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A209">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A210">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A211">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A212">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A213">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A214">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A215">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A216">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A217">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A218">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A219">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A220">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A221">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A222">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A223">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A224">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A225">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A226">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A227">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A228">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A229">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A230">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A231">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A232">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A233">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A234">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A235">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A236">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A237">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Framework_SupportingExcel.xlsx
+++ b/Framework_SupportingExcel.xlsx
@@ -8,18 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-automation-framework-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B36CD1C-241C-44E9-866D-8CC3D9A91167}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22874872-91C4-4CC1-8AD3-B769F88ED191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="3" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
   </bookViews>
   <sheets>
     <sheet name="TDD Vs BDD" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
   <si>
     <t>Cucumber</t>
   </si>
@@ -331,13 +331,191 @@
   </si>
   <si>
     <t>user_number</t>
+  </si>
+  <si>
+    <t>https://github.com/git-for-windows/git/releases/download/v2.27.0.windows.1/Git-2.27.0-64-bit.exe</t>
+  </si>
+  <si>
+    <t>Git Download</t>
+  </si>
+  <si>
+    <t>Git Bash</t>
+  </si>
+  <si>
+    <t>Command Prompt</t>
+  </si>
+  <si>
+    <t>Step 1</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Git Hub</t>
+  </si>
+  <si>
+    <t>Source Code Management</t>
+  </si>
+  <si>
+    <t>Create Github account</t>
+  </si>
+  <si>
+    <t>Git Setup</t>
+  </si>
+  <si>
+    <t>Create a repository on GitHub</t>
+  </si>
+  <si>
+    <t>Step 2</t>
+  </si>
+  <si>
+    <t>Create project on your PC and write yor code</t>
+  </si>
+  <si>
+    <t>Initialize the rpository</t>
+  </si>
+  <si>
+    <t>git status</t>
+  </si>
+  <si>
+    <t>git add .</t>
+  </si>
+  <si>
+    <t>git init</t>
+  </si>
+  <si>
+    <t>git add file1 file2 file3</t>
+  </si>
+  <si>
+    <t>Commit to local repository</t>
+  </si>
+  <si>
+    <t>git commit -m "commit message"</t>
+  </si>
+  <si>
+    <t>Link to remote git repository</t>
+  </si>
+  <si>
+    <t>git remote add origin gitrepourl</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Push </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Git Hub</t>
+    </r>
+  </si>
+  <si>
+    <t>git push origin master</t>
+  </si>
+  <si>
+    <t>Adding changes to staging area</t>
+  </si>
+  <si>
+    <t>To unstage changes =&gt; git reset</t>
+  </si>
+  <si>
+    <t>Here origin is the name of the remote. We can give any name</t>
+  </si>
+  <si>
+    <t>We can have multiple origins/remotes</t>
+  </si>
+  <si>
+    <t>master is the name of the branch</t>
+  </si>
+  <si>
+    <t>git clone repourl</t>
+  </si>
+  <si>
+    <t>Clone repo</t>
+  </si>
+  <si>
+    <t>Pull changes</t>
+  </si>
+  <si>
+    <t>git pull</t>
+  </si>
+  <si>
+    <t>Branches</t>
+  </si>
+  <si>
+    <t>master branch also called default branch</t>
+  </si>
+  <si>
+    <t>git remote=&gt; To list available remotes</t>
+  </si>
+  <si>
+    <t>To list only local branches</t>
+  </si>
+  <si>
+    <t>To list local and remote branches</t>
+  </si>
+  <si>
+    <t>git branch -a</t>
+  </si>
+  <si>
+    <t>git branch</t>
+  </si>
+  <si>
+    <t>git checkout branchname</t>
+  </si>
+  <si>
+    <t>git branch branchname</t>
+  </si>
+  <si>
+    <t>Create a Branch and Switch to it</t>
+  </si>
+  <si>
+    <t>git checkout -b branch1</t>
+  </si>
+  <si>
+    <t>Create a branch locally and push It to GitHub</t>
+  </si>
+  <si>
+    <t>Create a branch</t>
+  </si>
+  <si>
+    <t>Switch to newly created branch</t>
+  </si>
+  <si>
+    <t>Push the branch to Github</t>
+  </si>
+  <si>
+    <t>git push origin branchname</t>
+  </si>
+  <si>
+    <t>git checkout -b branchname</t>
+  </si>
+  <si>
+    <t>Clone a remote branch and switch to it</t>
+  </si>
+  <si>
+    <t>git checkout -b [branch name] origin/[branch name]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +530,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF24292E"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,9 +566,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -863,7 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26C46A-F037-418B-A725-4350F6B36078}">
   <dimension ref="A3:F57"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
@@ -1188,10 +1380,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85308FC7-BB6D-4916-A048-FC816F076245}">
-  <dimension ref="A1:AC237"/>
+  <dimension ref="A1:AC19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1370,1097 +1562,279 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A102">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A103">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A104">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A105">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A106">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A107">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A108">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A109">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A110">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A111">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A112">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A113">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A114">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A115">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A116">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A117">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A118">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A119">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A120">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A121">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A122">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A123">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A124">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A125">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A126">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A127">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A128">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A129">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A130">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A131">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A132">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A133">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A134">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A135">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A136">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A137">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A138">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A139">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A140">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A141">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A142">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A143">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A144">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A145">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A146">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A147">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A148">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A149">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A150">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A151">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A152">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A153">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A154">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A155">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A156">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A157">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A158">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A159">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A160">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A161">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A162">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A163">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A164">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A165">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A166">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A167">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A168">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A169">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A170">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A171">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A172">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A173">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A174">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A175">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A176">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A177">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A178">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A179">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A180">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A181">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A182">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A183">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A184">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A185">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A186">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A187">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A188">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A189">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A190">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A191">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A192">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A193">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A194">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A195">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A196">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A197">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A198">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A199">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A200">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A201">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A202">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A203">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A204">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A205">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A206">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A207">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A208">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A209">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A210">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A211">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A212">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A213">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A214">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A215">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A216">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A217">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A218">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A219">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A220">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A221">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A222">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A223">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A224">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A225">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A226">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A227">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A228">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A229">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A230">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A231">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A232">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A233">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A234">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A235">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A236">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A237">
-        <v>235</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA0B574-3309-4CA8-A98D-ACDBE0124BA1}">
+  <dimension ref="A2:D60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="13" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>129</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>135</v>
+      </c>
+      <c r="C45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B48" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B49" t="s">
+        <v>140</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B52" t="s">
+        <v>142</v>
+      </c>
+      <c r="C52" t="s">
+        <v>143</v>
+      </c>
+      <c r="D52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+      <c r="D54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Framework_SupportingExcel.xlsx
+++ b/Framework_SupportingExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-automation-framework-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22874872-91C4-4CC1-8AD3-B769F88ED191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27C0702-7C91-4ABD-A58A-1DC75D22C3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
   </bookViews>
   <sheets>
     <sheet name="TDD Vs BDD" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="203">
   <si>
     <t>Cucumber</t>
   </si>
@@ -343,9 +343,6 @@
   </si>
   <si>
     <t>Command Prompt</t>
-  </si>
-  <si>
-    <t>Step 1</t>
   </si>
   <si>
     <t>Git</t>
@@ -451,18 +448,12 @@
     <t>Pull changes</t>
   </si>
   <si>
-    <t>git pull</t>
-  </si>
-  <si>
     <t>Branches</t>
   </si>
   <si>
     <t>master branch also called default branch</t>
   </si>
   <si>
-    <t>git remote=&gt; To list available remotes</t>
-  </si>
-  <si>
     <t>To list only local branches</t>
   </si>
   <si>
@@ -508,14 +499,203 @@
     <t>Clone a remote branch and switch to it</t>
   </si>
   <si>
-    <t>git checkout -b [branch name] origin/[branch name]</t>
+    <t>git remote -v =&gt; To list available remotes</t>
+  </si>
+  <si>
+    <t>git clone followed by  git checkout branch</t>
+  </si>
+  <si>
+    <t>Deleting a branch</t>
+  </si>
+  <si>
+    <t>Deleting a local branch</t>
+  </si>
+  <si>
+    <t>git branch -d branchname</t>
+  </si>
+  <si>
+    <t>git branch -D branchname</t>
+  </si>
+  <si>
+    <t>Delete a branch without warning</t>
+  </si>
+  <si>
+    <t>Delete a branch with warnings</t>
+  </si>
+  <si>
+    <t>Merging branches</t>
+  </si>
+  <si>
+    <t>If you want to merge branchx into master</t>
+  </si>
+  <si>
+    <t>First swith to the branch to which you want o merge into(master )</t>
+  </si>
+  <si>
+    <t>git checkout master</t>
+  </si>
+  <si>
+    <t>run the command</t>
+  </si>
+  <si>
+    <t>git merge branchx</t>
+  </si>
+  <si>
+    <t>Online Hosted service to host repositories</t>
+  </si>
+  <si>
+    <t>Git Repository</t>
+  </si>
+  <si>
+    <t>Local Repository</t>
+  </si>
+  <si>
+    <t>Remote Repository</t>
+  </si>
+  <si>
+    <t>Directory where your project lives</t>
+  </si>
+  <si>
+    <t>Types of Repositories</t>
+  </si>
+  <si>
+    <t>Creating Repositories</t>
+  </si>
+  <si>
+    <t>Creating Local Repository</t>
+  </si>
+  <si>
+    <t>By executing  git init command</t>
+  </si>
+  <si>
+    <t>By executing git clone command</t>
+  </si>
+  <si>
+    <t>Repository contains .git folder which contains complete meta data</t>
+  </si>
+  <si>
+    <t>git folder</t>
+  </si>
+  <si>
+    <t>It has information like remotes,branches,commits etc</t>
+  </si>
+  <si>
+    <t>Linking Local and Remote repositories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you clone a remote repository, Then they  both are linked automatically automatically </t>
+  </si>
+  <si>
+    <t>If you create a local repo and remote repo, they have to be linked by executing this command</t>
+  </si>
+  <si>
+    <t>If we don't create alias ,then we need to use the gitrpourl everywhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here origin is the alias or shortname of the remote repo url </t>
+  </si>
+  <si>
+    <t>Creating repos</t>
+  </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>Syncing Repositories</t>
+  </si>
+  <si>
+    <t>Pushing the code</t>
+  </si>
+  <si>
+    <t>Pulling the code</t>
+  </si>
+  <si>
+    <t>git pull origin branchname</t>
+  </si>
+  <si>
+    <t>git fetch origin branchname</t>
+  </si>
+  <si>
+    <t>Pulls the latest code from remote and merges with local commited code</t>
+  </si>
+  <si>
+    <t>There generally are at least three copies of a project on your workstation.</t>
+  </si>
+  <si>
+    <t>One copy is your own repository with your own commit history (the already saved one, so to say).</t>
+  </si>
+  <si>
+    <t>The second copy is your working copy where you are editing and building (not committed yet to your repo).</t>
+  </si>
+  <si>
+    <t>The third copy is your local “cached” copy of a remote repository (probably the original from where you cloned yours)</t>
+  </si>
+  <si>
+    <t>git fetch is the command that tells your local git to retrieve the latest meta-data info from the original (yet doesn’t do any file transferring. It’s more like just checking to see if there are any changes available).</t>
+  </si>
+  <si>
+    <t>Since "git pull" tries to merge remote changes with your local ones, a so-called "merge conflict" can occur</t>
+  </si>
+  <si>
+    <r>
+      <t>Like for many other actions, it's highly recommended to start a "git pull" only with a clean working copy. This means that you should </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="9"/>
+        <color rgb="FF5D6268"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF5D6268"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+      </rPr>
+      <t> have any uncommitted local changes before you pull.</t>
+    </r>
+  </si>
+  <si>
+    <t>Create runner class</t>
+  </si>
+  <si>
+    <t>location of feature files</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>features</t>
+  </si>
+  <si>
+    <t>location of step definitions and hooks</t>
+  </si>
+  <si>
+    <t>plugin</t>
+  </si>
+  <si>
+    <t>to generate reports</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>To control which scenarios to run</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -539,10 +719,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="7"/>
-      <color rgb="FF24292E"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FF0A0A23"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF5D6268"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF5D6268"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,10 +759,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1053,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26C46A-F037-418B-A725-4350F6B36078}">
-  <dimension ref="A3:F57"/>
+  <dimension ref="A3:F62"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1368,6 +1569,44 @@
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>8</v>
+      </c>
+      <c r="C59" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" t="s">
+        <v>197</v>
+      </c>
+      <c r="F59" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E60" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E62" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -1569,268 +1808,462 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA0B574-3309-4CA8-A98D-ACDBE0124BA1}">
-  <dimension ref="A2:D60"/>
+  <dimension ref="A2:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.1796875" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67" style="3" customWidth="1"/>
+    <col min="5" max="5" width="86.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="D14" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>166</v>
+      </c>
+      <c r="C16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
         <v>107</v>
       </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" t="s">
+        <v>179</v>
+      </c>
+      <c r="C23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="C28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="D29" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
+      <c r="D30" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>181</v>
+      </c>
+      <c r="B32" t="s">
+        <v>182</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>183</v>
+      </c>
+      <c r="C33" t="s">
+        <v>184</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="D34" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" ht="41.5" x14ac:dyDescent="0.35">
+      <c r="D35" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+      <c r="C38" t="s">
         <v>109</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="D40" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="13" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B25" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="C25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.35">
-      <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="C34" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B36" t="s">
-        <v>128</v>
-      </c>
-      <c r="C36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B38" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B44" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="B48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B49" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B50" t="s">
-        <v>148</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B52" t="s">
-        <v>142</v>
-      </c>
-      <c r="C52" t="s">
-        <v>143</v>
-      </c>
-      <c r="D52" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C53" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>127</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="67" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>131</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="68" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>132</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
         <v>140</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D70" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="71" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="72" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>137</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="73" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="C55" t="s">
-        <v>145</v>
-      </c>
-      <c r="D55" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="D60" s="2" t="s">
+    <row r="75" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>139</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E75" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D76" s="3" t="s">
         <v>141</v>
+      </c>
+      <c r="E76" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D77" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="D78" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E78" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>154</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D81" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="D82" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>148</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E84" t="s">
+        <v>150</v>
+      </c>
+      <c r="F84" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E85" t="s">
+        <v>151</v>
+      </c>
+      <c r="F85" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="E87" t="s">
+        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/Framework_SupportingExcel.xlsx
+++ b/Framework_SupportingExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-automation-framework-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27C0702-7C91-4ABD-A58A-1DC75D22C3F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8881DC-AC2F-4ED8-A641-DC626638D279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
   </bookViews>
   <sheets>
     <sheet name="TDD Vs BDD" sheetId="1" r:id="rId1"/>
@@ -1256,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26C46A-F037-418B-A725-4350F6B36078}">
   <dimension ref="A3:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F62" sqref="F62"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1810,8 +1810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA0B574-3309-4CA8-A98D-ACDBE0124BA1}">
   <dimension ref="A2:F87"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Framework_SupportingExcel.xlsx
+++ b/Framework_SupportingExcel.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyTrainingWorkspace\mk-automation-framework-training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8881DC-AC2F-4ED8-A641-DC626638D279}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6056E68-89AC-4D25-8B12-55189BF4726A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="4" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="2" xr2:uid="{281D339B-0870-4E38-82E7-DD95B381E750}"/>
   </bookViews>
   <sheets>
     <sheet name="TDD Vs BDD" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Framework Description" sheetId="2" r:id="rId2"/>
+    <sheet name="StepByStep" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="202">
   <si>
     <t>Cucumber</t>
   </si>
@@ -51,12 +51,6 @@
     <t>BDD</t>
   </si>
   <si>
-    <t>Test is represented as behaviour of the application in human readable format</t>
-  </si>
-  <si>
-    <t>Purely code, No human redable test</t>
-  </si>
-  <si>
     <t>Only technical people can understand what is being tested</t>
   </si>
   <si>
@@ -90,18 +84,9 @@
     <t>We are automating behavioral tests</t>
   </si>
   <si>
-    <t>Automation Framework</t>
-  </si>
-  <si>
     <t>Testing Framework</t>
   </si>
   <si>
-    <t>Testinig framework + Few Other things</t>
-  </si>
-  <si>
-    <t>TDD/BDD</t>
-  </si>
-  <si>
     <t xml:space="preserve">BDD </t>
   </si>
   <si>
@@ -115,12 +100,6 @@
   </si>
   <si>
     <t>Logging(log4j)=&gt; As our tests are being executed, we need to write detailed information into logs to track test execution</t>
-  </si>
-  <si>
-    <t>Reporting(Extent) =&gt; Test results should be generated and presented to stake holders i</t>
-  </si>
-  <si>
-    <t>CI(Jenkins) =&gt; Code Version Control (Git/SVN)+ Build Tool (Maven/Ant/Gradle) + CI tool</t>
   </si>
   <si>
     <t>Configurations=&gt; Properties files</t>
@@ -689,6 +668,24 @@
   </si>
   <si>
     <t>To control which scenarios to run</t>
+  </si>
+  <si>
+    <t>Reporting(Basic reports using cucumber and advanced reports using cucumber-reports jenkins plugin) =&gt; Test results should be generated and presented to stake holders i</t>
+  </si>
+  <si>
+    <t>CI =&gt; Code Version Control (Git/SVN)+ Build Tool (Maven/Ant/Gradle) + CI tool(Jenkins)</t>
+  </si>
+  <si>
+    <t>Automation Framework = Testing framework(BDD/TDD) + Other things (Java + Selenium +Page Object Model approach + Data Driven approach + Logging + Reporting + Continuous Integration)</t>
+  </si>
+  <si>
+    <t>Purely code, No human readable test</t>
+  </si>
+  <si>
+    <t>Test is represented as behaviour of the application in human readable format(Scenarios in feature file)</t>
+  </si>
+  <si>
+    <t>write in main method</t>
   </si>
 </sst>
 </file>
@@ -1086,85 +1083,85 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F035473E-E66D-45A6-A1FB-548CFABA6349}">
-  <dimension ref="E4:H17"/>
+  <dimension ref="A4:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="54.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="107.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="107.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="H4" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" t="s">
+      <c r="B7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B9" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="H9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E13" t="s">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>7</v>
       </c>
-      <c r="H13" t="s">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E14" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>9</v>
       </c>
-      <c r="H14" t="s">
+      <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1174,77 +1171,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951B7804-F93E-4604-B5B1-AB999695D58F}">
-  <dimension ref="C3:F19"/>
+  <dimension ref="C3:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="106.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="167.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
-        <v>17</v>
+        <v>198</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C11" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>25</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.35">
-      <c r="C19" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1256,8 +1242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B26C46A-F037-418B-A725-4350F6B36078}">
   <dimension ref="A3:F62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1273,89 +1259,89 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F7" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F13" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F16" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F19" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
@@ -1363,7 +1349,10 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
@@ -1371,30 +1360,30 @@
         <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
@@ -1402,34 +1391,34 @@
         <v>4</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E29" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="F30" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F31" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
@@ -1437,46 +1426,46 @@
         <v>5</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F35" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F36" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="F38" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F39" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F40" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F41" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
@@ -1484,54 +1473,54 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E43" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F43" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F45" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F46" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F47" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F48" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F49" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F50" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1539,36 +1528,36 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E52" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="F52" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F53" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F54" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E56" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F57" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
@@ -1576,37 +1565,37 @@
         <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F59" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E60" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F60" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E61" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F61" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E62" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="F62" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1632,88 +1621,88 @@
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="I1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="K1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="L1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="P1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Q1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="R1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="S1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="T1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="U1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="V1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="W1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="X1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Y1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="Z1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AA1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AB1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="AC1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.35">
@@ -1810,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA0B574-3309-4CA8-A98D-ACDBE0124BA1}">
   <dimension ref="A2:F87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D58" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView topLeftCell="D58" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1826,444 +1815,444 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E13" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D17" s="3" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B23" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C23" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
       <c r="C28" s="2" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
       <c r="D29" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="28.5" x14ac:dyDescent="0.35">
       <c r="D30" s="4" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B32" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="D34" s="3" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="41.5" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C40" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D41" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C43" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D44" s="3" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D45" s="3" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D46" s="3" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="13" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D49" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D50" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D51" s="3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C56" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="D57" s="3" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C64" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C67" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C68" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C70" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C75" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D76" s="3" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E76" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D77" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="E77" t="s">
         <v>137</v>
-      </c>
-      <c r="E77" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.35">
       <c r="D78" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E78" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C80" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="E80" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D81" s="3" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="82" spans="3:6" x14ac:dyDescent="0.35">
       <c r="D82" s="3" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C84" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F84" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E85" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F85" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="87" spans="3:6" x14ac:dyDescent="0.35">
       <c r="E87" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
